--- a/Analyzed Data/217/217 NM9505 30C Charge/217 NM9505 30C Charge Fitted (sphere).xlsx
+++ b/Analyzed Data/217/217 NM9505 30C Charge/217 NM9505 30C Charge Fitted (sphere).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Initial SOC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dc (cm^2/s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Dt* (cm^2/s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>dq/dV (mAh/gV)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Rfit (Ohm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>micR (Ohmcm^2)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rdrop (Ohm)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Cap Span</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Fit Error</t>
         </is>
@@ -492,18 +507,25 @@
       <c r="B2" t="n">
         <v>3.531720241584159</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>-15.58943797990045</v>
-      </c>
+      <c r="C2" t="n">
+        <v>0.9916058068842946</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.99161342784741</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>20.74560163356875</v>
+        <v>-15.58943797990045</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>20.74560163356875</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -512,18 +534,25 @@
       <c r="B3" t="n">
         <v>3.531808102970298</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>362.6307902711428</v>
-      </c>
+      <c r="C3" t="n">
+        <v>0.9883656497179512</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9915982035525202</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>19.47149837948428</v>
+        <v>362.6307902711428</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>19.47149837948428</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -533,27 +562,36 @@
         <v>3.537671563366338</v>
       </c>
       <c r="C4" t="n">
+        <v>0.9599077284171872</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9851331141320233</v>
+      </c>
+      <c r="E4" t="n">
         <v>1.003822917842771e-12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>1.15229688516344e-12</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.654466425785915</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>465.0500179319458</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>23016.57466808966</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>79440.00640297892</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>10.13138838125921</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>0.5222860828260937</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>0.05915319634334333</v>
       </c>
     </row>
@@ -565,27 +603,36 @@
         <v>3.571115806930695</v>
       </c>
       <c r="C5" t="n">
+        <v>0.9146849503939857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9346823588829911</v>
+      </c>
+      <c r="E5" t="n">
         <v>4.820261131761566e-13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
+        <v>1.776715428762427e-13</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.2099671219458135</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>302.7936205788868</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>9342.723889362131</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>32245.72102038986</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>112.4541184258475</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>0.7444582737449759</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>0.03484106661303631</v>
       </c>
     </row>
@@ -597,27 +644,36 @@
         <v>3.611829162376238</v>
       </c>
       <c r="C6" t="n">
+        <v>0.8744998873061952</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8946875594981116</v>
+      </c>
+      <c r="E6" t="n">
         <v>3.247166292748063e-13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
+        <v>1.08987751737354e-13</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.07342300886497952</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>387.7745206158762</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>3786.93529001662</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>13070.32727609403</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>143.1109485118561</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>0.8328339484160256</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>0.03460972401772027</v>
       </c>
     </row>
@@ -629,27 +685,36 @@
         <v>3.644181444554455</v>
       </c>
       <c r="C7" t="n">
+        <v>0.8280769967696261</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8543122315189713</v>
+      </c>
+      <c r="E7" t="n">
         <v>9.872744297856232e-13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
+        <v>4.194112058806839e-13</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.1757153397923942</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
         <v>636.6622249064387</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>1815.524905687121</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>6266.150033719291</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>142.646879359406</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>0.8521337536532949</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>0.02839401334835383</v>
       </c>
     </row>
@@ -661,27 +726,36 @@
         <v>3.670628684158417</v>
       </c>
       <c r="C8" t="n">
+        <v>0.7844593898715593</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8018417793085657</v>
+      </c>
+      <c r="E8" t="n">
         <v>1.339664388782811e-12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
+        <v>3.243662597313021e-13</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.08730074081202144</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>430.9644688838424</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>982.019148039081</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>3389.366512308555</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>122.1906506207758</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>0.8625906036559761</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>0.01713873586243397</v>
       </c>
     </row>
@@ -693,27 +767,36 @@
         <v>3.693722845544554</v>
       </c>
       <c r="C9" t="n">
+        <v>0.753023311525908</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7670770671534796</v>
+      </c>
+      <c r="E9" t="n">
         <v>2.480270342163642e-12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
+        <v>4.464375925515226e-13</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.09383978963145487</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>352.3938770122144</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>697.2670737827214</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>2406.565772911471</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>114.9178283529453</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>0.7907481128126701</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>0.009706219324885888</v>
       </c>
     </row>
@@ -725,27 +808,36 @@
         <v>3.718653383168317</v>
       </c>
       <c r="C10" t="n">
+        <v>0.7236103849186528</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7389695719200885</v>
+      </c>
+      <c r="E10" t="n">
         <v>2.560897853723312e-12</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
+        <v>4.479915614791097e-13</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.06443136207516749</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>368.3039035113756</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>443.6477062188027</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>1531.217269768219</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>110.3856412307359</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>0.8196568423990177</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>0.01231065862098916</v>
       </c>
     </row>
@@ -757,27 +849,36 @@
         <v>3.744668458415842</v>
       </c>
       <c r="C11" t="n">
+        <v>0.6922217245824136</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7082512141137918</v>
+      </c>
+      <c r="E11" t="n">
         <v>2.668030126751063e-12</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
+        <v>4.797775399747223e-13</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.04939287607610589</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>403.3059258513129</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>298.1113345765951</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>1028.909239062325</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>100.0404963899543</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>0.8441595211192217</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>0.02006410949781757</v>
       </c>
     </row>
@@ -789,27 +890,36 @@
         <v>3.770197069306932</v>
       </c>
       <c r="C12" t="n">
+        <v>0.6608854425592587</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6761922513716577</v>
+      </c>
+      <c r="E12" t="n">
         <v>3.594555949299253e-12</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
+        <v>5.998924816421758e-13</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.05050723874359281</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>393.7340941108756</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>231.7634043375135</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>799.9142613550484</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>95.34647967811647</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>0.844724087216969</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>0.0209056057452601</v>
       </c>
     </row>
@@ -821,27 +931,36 @@
         <v>3.795277474257426</v>
       </c>
       <c r="C13" t="n">
+        <v>0.6325963643331218</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6455786498829891</v>
+      </c>
+      <c r="E13" t="n">
         <v>5.234291553361768e-12</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
+        <v>7.170888377214106e-13</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.05218070713233915</v>
       </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
         <v>335.1872005571844</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>193.1541886103215</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>666.6574067269619</v>
       </c>
-      <c r="H13" t="n">
+      <c r="K13" t="n">
         <v>92.45359383795255</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>0.8481977551059701</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>0.02133893647508059</v>
       </c>
     </row>
@@ -853,27 +972,36 @@
         <v>3.820185769306931</v>
       </c>
       <c r="C14" t="n">
+        <v>0.6091086802074966</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.61961409468437</v>
+      </c>
+      <c r="E14" t="n">
         <v>6.831592543914093e-12</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
+        <v>7.418080744046689e-13</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.04810573092479684</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>272.158966895923</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>168.0318930470449</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>579.949660279742</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>85.46431080397402</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>0.844514201958709</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>0.03054284084910049</v>
       </c>
     </row>
@@ -885,27 +1013,36 @@
         <v>3.844979957425742</v>
       </c>
       <c r="C15" t="n">
+        <v>0.5896660542308286</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5986032820345555</v>
+      </c>
+      <c r="E15" t="n">
         <v>7.817988399441292e-12</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
+        <v>7.083580255877923e-13</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.04300650409800208</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
         <v>230.782887549722</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>154.8014493634592</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>534.2857617155718</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
         <v>83.60797923939522</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>0.8255720070259112</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>0.04271229797985159</v>
       </c>
     </row>
@@ -917,27 +1054,36 @@
         <v>3.869831393069308</v>
       </c>
       <c r="C16" t="n">
+        <v>0.5723526510347539</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5807288436250796</v>
+      </c>
+      <c r="E16" t="n">
         <v>7.276225598806831e-12</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
+        <v>6.121501612891268e-13</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.0372783029472384</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>216.7721712145266</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>153.4920745488174</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>529.7665513135453</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
         <v>83.34132950016493</v>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>0.8120896402021258</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>0.0559380208801349</v>
       </c>
     </row>
@@ -949,27 +1095,36 @@
         <v>3.894752936633662</v>
       </c>
       <c r="C17" t="n">
+        <v>0.5551252160970644</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5639764754164138</v>
+      </c>
+      <c r="E17" t="n">
         <v>5.713472659379045e-12</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
+        <v>5.033052173925559e-13</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.02942231688678022</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
         <v>229.014118259325</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
         <v>146.0339944557681</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>504.0255390695658</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
         <v>86.75128259185122</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>0.7960601237613902</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>0.06248552313989472</v>
       </c>
     </row>
@@ -981,27 +1136,36 @@
         <v>3.91982078910891</v>
       </c>
       <c r="C18" t="n">
+        <v>0.5356900910255624</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5462739734253723</v>
+      </c>
+      <c r="E18" t="n">
         <v>4.012020794486421e-12</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
+        <v>4.23244414795789e-13</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.02388839423820887</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
         <v>276.2179247237742</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>139.9946471949387</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>483.181178343065</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>83.05591741620248</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>0.8132065413505317</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>0.06451329129310385</v>
       </c>
     </row>
@@ -1013,27 +1177,36 @@
         <v>3.945125437623761</v>
       </c>
       <c r="C19" t="n">
+        <v>0.511780929470421</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.525106225722237</v>
+      </c>
+      <c r="E19" t="n">
         <v>2.272158282493635e-12</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
+        <v>3.426131966518981e-13</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.01878357308018054</v>
       </c>
-      <c r="E19" t="n">
+      <c r="H19" t="n">
         <v>396.6126625905269</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>135.3669230509069</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>467.208930476714</v>
       </c>
-      <c r="H19" t="n">
+      <c r="K19" t="n">
         <v>83.57703596136062</v>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>0.7393153705510574</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>0.08496099641379162</v>
       </c>
     </row>
@@ -1045,27 +1218,36 @@
         <v>3.969858795049504</v>
       </c>
       <c r="C20" t="n">
+        <v>0.4649917654757544</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4984556499488101</v>
+      </c>
+      <c r="E20" t="n">
         <v>1.945912628739219e-12</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
+        <v>3.593866031800972e-13</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.02075839249267201</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
         <v>483.6670569521215</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>143.2396926307216</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>494.3812128362056</v>
       </c>
-      <c r="H20" t="n">
+      <c r="K20" t="n">
         <v>84.0542381212054</v>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>0.8845387692273429</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>0.05143349405306988</v>
       </c>
     </row>
@@ -1077,27 +1259,36 @@
         <v>4.019947973267326</v>
       </c>
       <c r="C21" t="n">
+        <v>0.4202710072270374</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4315278963900309</v>
+      </c>
+      <c r="E21" t="n">
         <v>3.6723665502669e-12</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
+        <v>5.268185567886848e-13</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.02934763210470294</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>367.935527424134</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
         <v>141.0570589124779</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
         <v>486.8480138675066</v>
       </c>
-      <c r="H21" t="n">
+      <c r="K21" t="n">
         <v>81.68844928566637</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>0.7252648110846208</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>0.06096694869988244</v>
       </c>
     </row>
@@ -1109,27 +1300,36 @@
         <v>4.044415573267327</v>
       </c>
       <c r="C22" t="n">
+        <v>0.4009009135705802</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4090141332682362</v>
+      </c>
+      <c r="E22" t="n">
         <v>3.902616924920915e-12</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F22" t="n">
+        <v>4.292087019014612e-13</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.02246816679597063</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>278.0676907839822</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>134.4623481858225</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
         <v>464.0868571834229</v>
       </c>
-      <c r="H22" t="n">
+      <c r="K22" t="n">
         <v>80.72416561657205</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>0.6688825388747885</v>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>0.09075121593257601</v>
       </c>
     </row>
@@ -1141,27 +1341,36 @@
         <v>4.068788562376238</v>
       </c>
       <c r="C23" t="n">
+        <v>0.3862656649152406</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3927877089106672</v>
+      </c>
+      <c r="E23" t="n">
         <v>3.00139986712298e-12</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
+        <v>3.053995844799529e-13</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.01512025887403039</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>253.9296073023542</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>128.8432089505171</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
         <v>444.6928134011064</v>
       </c>
-      <c r="H23" t="n">
+      <c r="K23" t="n">
         <v>78.55730984757203</v>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>0.5611725269174503</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>0.1394120068961044</v>
       </c>
     </row>
@@ -1173,27 +1382,36 @@
         <v>4.093267647524753</v>
       </c>
       <c r="C24" t="n">
+        <v>0.3738045745778091</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3797436357360754</v>
+      </c>
+      <c r="E24" t="n">
         <v>1.696101121460837e-12</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
+        <v>1.896999292553254e-13</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.009113668559966205</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>275.5955256780143</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>126.6219019362062</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
         <v>437.0261364092216</v>
       </c>
-      <c r="H24" t="n">
+      <c r="K24" t="n">
         <v>84.0643441191079</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>0.4594029531711815</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>0.1906355811306993</v>
       </c>
     </row>
@@ -1205,27 +1423,36 @@
         <v>4.1181511019802</v>
       </c>
       <c r="C25" t="n">
+        <v>0.3615206605362039</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.367865528517731</v>
+      </c>
+      <c r="E25" t="n">
         <v>3.204829916881668e-13</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
+        <v>7.515273775318008e-14</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.003628234482687287</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>569.7994461573544</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>129.0350943401414</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>445.355091641905</v>
       </c>
-      <c r="H25" t="n">
+      <c r="K25" t="n">
         <v>80.48684930213628</v>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>0.2335519260541704</v>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>0.2730499010114333</v>
       </c>
     </row>
@@ -1237,27 +1464,36 @@
         <v>4.143490203960398</v>
       </c>
       <c r="C26" t="n">
+        <v>0.3478486156914935</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.355175807637528</v>
+      </c>
+      <c r="E26" t="n">
         <v>3.075777002016771e-13</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
+        <v>8.487107204345371e-14</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.004732569743109567</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>658.9398531881241</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>151.647728210117</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
         <v>523.4009262338589</v>
       </c>
-      <c r="H26" t="n">
+      <c r="K26" t="n">
         <v>85.45065970692723</v>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
         <v>0.2768945853324437</v>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
         <v>0.1278430836917172</v>
       </c>
     </row>
@@ -1268,18 +1504,25 @@
       <c r="B27" t="n">
         <v>4.168506025742573</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>-198.1380788288403</v>
-      </c>
+      <c r="C27" t="n">
+        <v>0.3121528774689605</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3405214395329013</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>82.03942693037995</v>
+        <v>-198.1380788288403</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>82.03942693037995</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
